--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value355.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value355.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8696789659728529</v>
+        <v>0.9036206007003784</v>
       </c>
       <c r="B1">
-        <v>1.480177374148838</v>
+        <v>2.722719192504883</v>
       </c>
       <c r="C1">
-        <v>3.27665156210062</v>
+        <v>4.499489307403564</v>
       </c>
       <c r="D1">
-        <v>2.921602386681591</v>
+        <v>2.169961214065552</v>
       </c>
       <c r="E1">
-        <v>0.9850330308987452</v>
+        <v>1.28072988986969</v>
       </c>
     </row>
   </sheetData>
